--- a/database/industries/folad/folad/official/quarterly.xlsx
+++ b/database/industries/folad/folad/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD720D9-B30A-417D-B018-C6E5867D7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل دوم منتهی به 1400/06</t>
@@ -93,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +273,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +285,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,6 +332,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +384,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,17 +552,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -521,8 +571,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -533,8 +588,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -545,8 +605,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -555,8 +620,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -567,8 +637,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -579,8 +654,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -589,8 +669,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -611,8 +696,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -621,40 +721,60 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>637196</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1060038</v>
+      </c>
+      <c r="H10" s="9">
+        <v>943970</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1446441</v>
+      </c>
+      <c r="J10" s="9">
         <v>870019</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1532072</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>807816</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>925241</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>363622</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>143461</v>
       </c>
       <c r="F11" s="11">
-        <v>0</v>
+        <v>-143461</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -665,54 +785,99 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>42243</v>
+      </c>
+      <c r="F12" s="9">
+        <v>252772</v>
+      </c>
+      <c r="G12" s="9">
+        <v>100620</v>
+      </c>
+      <c r="H12" s="9">
+        <v>205313</v>
+      </c>
+      <c r="I12" s="9">
+        <v>42243</v>
+      </c>
+      <c r="J12" s="9">
         <v>677760</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>339690</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>335132</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>299947</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>203331</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>32142</v>
+      </c>
+      <c r="F13" s="11">
+        <v>510120</v>
+      </c>
+      <c r="G13" s="11">
+        <v>494858</v>
+      </c>
+      <c r="H13" s="11">
+        <v>413495</v>
+      </c>
+      <c r="I13" s="11">
+        <v>32142</v>
+      </c>
+      <c r="J13" s="11">
         <v>1115897</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>970830</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>1028127</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>404190</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>113266</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -720,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>696714</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>-696714</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -731,10 +896,25 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -742,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>84026</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>-84026</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -753,54 +933,99 @@
       <c r="I15" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>65760</v>
+      </c>
+      <c r="F16" s="9">
+        <v>11928</v>
+      </c>
+      <c r="G16" s="9">
+        <v>132391</v>
+      </c>
+      <c r="H16" s="9">
+        <v>56543</v>
+      </c>
+      <c r="I16" s="9">
+        <v>65760</v>
+      </c>
+      <c r="J16" s="9">
         <v>100776</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>59908</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>99925</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>106292</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>148544</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>1753756</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1496458</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1469192</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2184916</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1753756</v>
+      </c>
+      <c r="J17" s="11">
         <v>3871887</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>2417332</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>2874754</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>4315720</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>4232462</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -819,52 +1044,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>1093531</v>
+      </c>
+      <c r="F19" s="11">
+        <v>583670</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2585817</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2552404</v>
+      </c>
+      <c r="I19" s="11">
+        <v>2976785</v>
+      </c>
+      <c r="J19" s="11">
         <v>1433666</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>2421157</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>5010121</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>5634772</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>4153876</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>3130893</v>
+      </c>
+      <c r="F20" s="13">
+        <v>4129423</v>
+      </c>
+      <c r="G20" s="13">
+        <v>5062176</v>
+      </c>
+      <c r="H20" s="13">
+        <v>6356641</v>
+      </c>
+      <c r="I20" s="13">
+        <v>6317127</v>
+      </c>
+      <c r="J20" s="13">
         <v>8070005</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>7740989</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>10155875</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>11686162</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>9215101</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -873,8 +1143,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -883,8 +1158,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -893,10 +1173,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -915,8 +1200,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -925,52 +1225,87 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>2350</v>
+      </c>
+      <c r="F26" s="9">
+        <v>1841</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2269</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2230</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1764</v>
+      </c>
+      <c r="J26" s="9">
         <v>1752</v>
       </c>
-      <c r="F26" s="9">
+      <c r="K26" s="9">
         <v>2573</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>2534</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>2534</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>3326</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>10230</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10636</v>
+      </c>
+      <c r="G27" s="11">
+        <v>10214</v>
+      </c>
+      <c r="H27" s="11">
+        <v>9999</v>
+      </c>
+      <c r="I27" s="11">
+        <v>10441</v>
+      </c>
+      <c r="J27" s="11">
         <v>10581</v>
       </c>
-      <c r="F27" s="11">
+      <c r="K27" s="11">
         <v>9721</v>
       </c>
-      <c r="G27" s="11">
+      <c r="L27" s="11">
         <v>9627</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>9627</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>8787</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -979,8 +1314,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -989,8 +1329,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -999,8 +1344,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1009,6 +1359,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/official/quarterly.xlsx
+++ b/database/industries/folad/folad/official/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD720D9-B30A-417D-B018-C6E5867D7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1533B5-3B1B-4FA9-83F0-A02D2AB99C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فولاد-فولاد مبارکه اصفهان</t>
@@ -34,24 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -62,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -553,16 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,13 +556,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,13 +568,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -605,13 +580,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -620,13 +590,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -637,13 +602,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -654,13 +614,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -669,13 +624,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -696,23 +646,8 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -721,60 +656,40 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>1532072</v>
       </c>
       <c r="F10" s="9">
-        <v>637196</v>
+        <v>1257773</v>
       </c>
       <c r="G10" s="9">
-        <v>1060038</v>
+        <v>925241</v>
       </c>
       <c r="H10" s="9">
-        <v>943970</v>
+        <v>363622</v>
       </c>
       <c r="I10" s="9">
-        <v>1446441</v>
-      </c>
-      <c r="J10" s="9">
-        <v>870019</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1532072</v>
-      </c>
-      <c r="L10" s="9">
-        <v>807816</v>
-      </c>
-      <c r="M10" s="9">
-        <v>925241</v>
-      </c>
-      <c r="N10" s="9">
-        <v>363622</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3124859</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>143461</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
-        <v>-143461</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -785,99 +700,54 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>42243</v>
+        <v>339690</v>
       </c>
       <c r="F12" s="9">
-        <v>252772</v>
+        <v>335131</v>
       </c>
       <c r="G12" s="9">
-        <v>100620</v>
+        <v>299947</v>
       </c>
       <c r="H12" s="9">
-        <v>205313</v>
+        <v>203331</v>
       </c>
       <c r="I12" s="9">
-        <v>42243</v>
-      </c>
-      <c r="J12" s="9">
-        <v>677760</v>
-      </c>
-      <c r="K12" s="9">
-        <v>339690</v>
-      </c>
-      <c r="L12" s="9">
-        <v>335132</v>
-      </c>
-      <c r="M12" s="9">
-        <v>299947</v>
-      </c>
-      <c r="N12" s="9">
-        <v>203331</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>371112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>32142</v>
+        <v>970830</v>
       </c>
       <c r="F13" s="11">
-        <v>510120</v>
+        <v>1140923</v>
       </c>
       <c r="G13" s="11">
-        <v>494858</v>
+        <v>404190</v>
       </c>
       <c r="H13" s="11">
-        <v>413495</v>
+        <v>112584</v>
       </c>
       <c r="I13" s="11">
-        <v>32142</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1115897</v>
-      </c>
-      <c r="K13" s="11">
-        <v>970830</v>
-      </c>
-      <c r="L13" s="11">
-        <v>1028127</v>
-      </c>
-      <c r="M13" s="11">
-        <v>404190</v>
-      </c>
-      <c r="N13" s="11">
-        <v>113266</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3248226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -885,36 +755,21 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>696714</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>-696714</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>1813451</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-1813451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -922,110 +777,65 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>84026</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>-84026</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>488624</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-488624</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>65760</v>
+        <v>59908</v>
       </c>
       <c r="F16" s="9">
-        <v>11928</v>
+        <v>99925</v>
       </c>
       <c r="G16" s="9">
-        <v>132391</v>
+        <v>106292</v>
       </c>
       <c r="H16" s="9">
-        <v>56543</v>
+        <v>148543</v>
       </c>
       <c r="I16" s="9">
-        <v>65760</v>
-      </c>
-      <c r="J16" s="9">
-        <v>100776</v>
-      </c>
-      <c r="K16" s="9">
-        <v>59908</v>
-      </c>
-      <c r="L16" s="9">
-        <v>99925</v>
-      </c>
-      <c r="M16" s="9">
-        <v>106292</v>
-      </c>
-      <c r="N16" s="9">
-        <v>148544</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+        <v>243694</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1753756</v>
+        <v>2417332</v>
       </c>
       <c r="F17" s="11">
-        <v>1496458</v>
+        <v>2874726</v>
       </c>
       <c r="G17" s="11">
-        <v>1469192</v>
+        <v>4315720</v>
       </c>
       <c r="H17" s="11">
-        <v>2184916</v>
+        <v>4232462</v>
       </c>
       <c r="I17" s="11">
-        <v>1753756</v>
-      </c>
-      <c r="J17" s="11">
-        <v>3871887</v>
-      </c>
-      <c r="K17" s="11">
-        <v>2417332</v>
-      </c>
-      <c r="L17" s="11">
-        <v>2874754</v>
-      </c>
-      <c r="M17" s="11">
-        <v>4315720</v>
-      </c>
-      <c r="N17" s="11">
-        <v>4232462</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3249600</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1044,97 +854,52 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>1093531</v>
+        <v>2421157</v>
       </c>
       <c r="F19" s="11">
-        <v>583670</v>
+        <v>4447397</v>
       </c>
       <c r="G19" s="11">
-        <v>2585817</v>
+        <v>5634772</v>
       </c>
       <c r="H19" s="11">
-        <v>2552404</v>
+        <v>1852034</v>
       </c>
       <c r="I19" s="11">
-        <v>2976785</v>
-      </c>
-      <c r="J19" s="11">
-        <v>1433666</v>
-      </c>
-      <c r="K19" s="11">
-        <v>2421157</v>
-      </c>
-      <c r="L19" s="11">
-        <v>5010121</v>
-      </c>
-      <c r="M19" s="11">
-        <v>5634772</v>
-      </c>
-      <c r="N19" s="11">
-        <v>4153876</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>6864894</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>3130893</v>
+        <v>7740989</v>
       </c>
       <c r="F20" s="13">
-        <v>4129423</v>
+        <v>10155875</v>
       </c>
       <c r="G20" s="13">
-        <v>5062176</v>
+        <v>11686162</v>
       </c>
       <c r="H20" s="13">
-        <v>6356641</v>
+        <v>9214651</v>
       </c>
       <c r="I20" s="13">
-        <v>6317127</v>
-      </c>
-      <c r="J20" s="13">
-        <v>8070005</v>
-      </c>
-      <c r="K20" s="13">
-        <v>7740989</v>
-      </c>
-      <c r="L20" s="13">
-        <v>10155875</v>
-      </c>
-      <c r="M20" s="13">
-        <v>11686162</v>
-      </c>
-      <c r="N20" s="13">
-        <v>9215101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+        <v>14800310</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1143,13 +908,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1158,13 +918,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1173,15 +928,10 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1200,23 +950,8 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1225,87 +960,52 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>2350</v>
+        <v>2573</v>
       </c>
       <c r="F26" s="9">
-        <v>1841</v>
+        <v>2534</v>
       </c>
       <c r="G26" s="9">
-        <v>2269</v>
+        <v>2534</v>
       </c>
       <c r="H26" s="9">
-        <v>2230</v>
+        <v>3326</v>
       </c>
       <c r="I26" s="9">
-        <v>1764</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1752</v>
-      </c>
-      <c r="K26" s="9">
-        <v>2573</v>
-      </c>
-      <c r="L26" s="9">
-        <v>2534</v>
-      </c>
-      <c r="M26" s="9">
-        <v>2534</v>
-      </c>
-      <c r="N26" s="9">
-        <v>3326</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>10230</v>
+        <v>9721</v>
       </c>
       <c r="F27" s="11">
-        <v>10636</v>
+        <v>9627</v>
       </c>
       <c r="G27" s="11">
-        <v>10214</v>
+        <v>9627</v>
       </c>
       <c r="H27" s="11">
-        <v>9999</v>
+        <v>8787</v>
       </c>
       <c r="I27" s="11">
-        <v>10441</v>
-      </c>
-      <c r="J27" s="11">
-        <v>10581</v>
-      </c>
-      <c r="K27" s="11">
-        <v>9721</v>
-      </c>
-      <c r="L27" s="11">
-        <v>9627</v>
-      </c>
-      <c r="M27" s="11">
-        <v>9627</v>
-      </c>
-      <c r="N27" s="11">
-        <v>8787</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1314,13 +1014,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1329,13 +1024,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1344,13 +1034,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1359,11 +1044,6 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/official/quarterly.xlsx
+++ b/database/industries/folad/folad/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1533B5-3B1B-4FA9-83F0-A02D2AB99C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C658C8-A9AD-4534-A64C-79378A990EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>هزینه های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -538,16 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I31"/>
+  <dimension ref="B1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -556,8 +571,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,8 +588,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -580,8 +605,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -590,8 +620,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -602,8 +637,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -614,8 +654,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -624,8 +669,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -646,8 +696,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -656,37 +721,57 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>637196</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1060038</v>
+      </c>
+      <c r="G10" s="9">
+        <v>943970</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1446441</v>
+      </c>
+      <c r="I10" s="9">
+        <v>870019</v>
+      </c>
+      <c r="J10" s="9">
         <v>1532072</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1257773</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>925241</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>363622</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>3124859</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>0</v>
+        <v>-143461</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -700,142 +785,247 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>252772</v>
+      </c>
+      <c r="F12" s="9">
+        <v>100620</v>
+      </c>
+      <c r="G12" s="9">
+        <v>205313</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42243</v>
+      </c>
+      <c r="I12" s="9">
+        <v>677760</v>
+      </c>
+      <c r="J12" s="9">
         <v>339690</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>335131</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>299947</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>203331</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>371112</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>510120</v>
+      </c>
+      <c r="F13" s="11">
+        <v>494858</v>
+      </c>
+      <c r="G13" s="11">
+        <v>413495</v>
+      </c>
+      <c r="H13" s="11">
+        <v>32142</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1115897</v>
+      </c>
+      <c r="J13" s="11">
         <v>970830</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>1140923</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>404190</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>112584</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>3248226</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>0</v>
+        <v>696714</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-696714</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>1813451</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-1813451</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
+        <v>84026</v>
       </c>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>-84026</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
       </c>
       <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
         <v>488624</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>-488624</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>11928</v>
+      </c>
+      <c r="F16" s="9">
+        <v>132391</v>
+      </c>
+      <c r="G16" s="9">
+        <v>56543</v>
+      </c>
+      <c r="H16" s="9">
+        <v>65760</v>
+      </c>
+      <c r="I16" s="9">
+        <v>100776</v>
+      </c>
+      <c r="J16" s="9">
         <v>59908</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>99925</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>106292</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>148543</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>243694</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>1496458</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1469192</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2184916</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1753756</v>
+      </c>
+      <c r="I17" s="11">
+        <v>3871887</v>
+      </c>
+      <c r="J17" s="11">
         <v>2417332</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>2874726</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>4315720</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>4232462</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>3249600</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -854,52 +1044,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>583670</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2585817</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2552404</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2976785</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1433666</v>
+      </c>
+      <c r="J19" s="11">
         <v>2421157</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>4447397</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>5634772</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>1852034</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>6864894</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>4129423</v>
+      </c>
+      <c r="F20" s="13">
+        <v>5062176</v>
+      </c>
+      <c r="G20" s="13">
+        <v>6356641</v>
+      </c>
+      <c r="H20" s="13">
+        <v>6317127</v>
+      </c>
+      <c r="I20" s="13">
+        <v>8070005</v>
+      </c>
+      <c r="J20" s="13">
         <v>7740989</v>
       </c>
-      <c r="F20" s="13">
+      <c r="K20" s="13">
         <v>10155875</v>
       </c>
-      <c r="G20" s="13">
+      <c r="L20" s="13">
         <v>11686162</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>9214651</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>14800310</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -908,8 +1143,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -918,8 +1158,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -928,10 +1173,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -950,8 +1200,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -960,52 +1225,87 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>1841</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2269</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2230</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1764</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1752</v>
+      </c>
+      <c r="J26" s="9">
         <v>2573</v>
       </c>
-      <c r="F26" s="9">
+      <c r="K26" s="9">
         <v>2534</v>
       </c>
-      <c r="G26" s="9">
+      <c r="L26" s="9">
         <v>2534</v>
       </c>
-      <c r="H26" s="9">
+      <c r="M26" s="9">
         <v>3326</v>
       </c>
-      <c r="I26" s="9">
+      <c r="N26" s="9">
         <v>3417</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>10636</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10214</v>
+      </c>
+      <c r="G27" s="11">
+        <v>9999</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10441</v>
+      </c>
+      <c r="I27" s="11">
+        <v>10581</v>
+      </c>
+      <c r="J27" s="11">
         <v>9721</v>
       </c>
-      <c r="F27" s="11">
+      <c r="K27" s="11">
         <v>9627</v>
       </c>
-      <c r="G27" s="11">
+      <c r="L27" s="11">
         <v>9627</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>8787</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>8698</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1014,8 +1314,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1024,8 +1329,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1034,8 +1344,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1044,6 +1359,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/official/quarterly.xlsx
+++ b/database/industries/folad/folad/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C658C8-A9AD-4534-A64C-79378A990EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE58E3-2A95-487C-826C-AF93152637DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -557,12 +557,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -577,7 +577,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -626,7 +626,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -675,7 +675,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -727,51 +727,51 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>637196</v>
+        <v>1060038</v>
       </c>
       <c r="F10" s="9">
-        <v>1060038</v>
+        <v>943970</v>
       </c>
       <c r="G10" s="9">
-        <v>943970</v>
+        <v>1446441</v>
       </c>
       <c r="H10" s="9">
-        <v>1446441</v>
+        <v>870019</v>
       </c>
       <c r="I10" s="9">
-        <v>870019</v>
+        <v>1532072</v>
       </c>
       <c r="J10" s="9">
-        <v>1532072</v>
+        <v>807816</v>
       </c>
       <c r="K10" s="9">
-        <v>1257773</v>
+        <v>925241</v>
       </c>
       <c r="L10" s="9">
-        <v>925241</v>
+        <v>363622</v>
       </c>
       <c r="M10" s="9">
-        <v>363622</v>
+        <v>3124859</v>
       </c>
       <c r="N10" s="9">
-        <v>3124859</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3443875</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>-143461</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -801,91 +801,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>252772</v>
+        <v>100620</v>
       </c>
       <c r="F12" s="9">
-        <v>100620</v>
+        <v>205313</v>
       </c>
       <c r="G12" s="9">
-        <v>205313</v>
+        <v>42243</v>
       </c>
       <c r="H12" s="9">
-        <v>42243</v>
+        <v>677760</v>
       </c>
       <c r="I12" s="9">
-        <v>677760</v>
+        <v>339690</v>
       </c>
       <c r="J12" s="9">
-        <v>339690</v>
+        <v>335132</v>
       </c>
       <c r="K12" s="9">
-        <v>335131</v>
+        <v>299947</v>
       </c>
       <c r="L12" s="9">
-        <v>299947</v>
+        <v>203331</v>
       </c>
       <c r="M12" s="9">
-        <v>203331</v>
+        <v>371112</v>
       </c>
       <c r="N12" s="9">
-        <v>371112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>393451</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>510120</v>
+        <v>494858</v>
       </c>
       <c r="F13" s="11">
-        <v>494858</v>
+        <v>413495</v>
       </c>
       <c r="G13" s="11">
-        <v>413495</v>
+        <v>32142</v>
       </c>
       <c r="H13" s="11">
-        <v>32142</v>
+        <v>1115897</v>
       </c>
       <c r="I13" s="11">
-        <v>1115897</v>
+        <v>970830</v>
       </c>
       <c r="J13" s="11">
-        <v>970830</v>
+        <v>1028127</v>
       </c>
       <c r="K13" s="11">
-        <v>1140923</v>
+        <v>404190</v>
       </c>
       <c r="L13" s="11">
-        <v>404190</v>
+        <v>112584</v>
       </c>
       <c r="M13" s="11">
-        <v>112584</v>
+        <v>3248226</v>
       </c>
       <c r="N13" s="11">
-        <v>3248226</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1305000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>696714</v>
+        <v>-696714</v>
       </c>
       <c r="F14" s="9">
-        <v>-696714</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -903,26 +903,26 @@
         <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>1813451</v>
       </c>
       <c r="M14" s="9">
-        <v>1813451</v>
+        <v>-1813451</v>
       </c>
       <c r="N14" s="9">
-        <v>-1813451</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>84026</v>
+        <v>-84026</v>
       </c>
       <c r="F15" s="11">
-        <v>-84026</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -940,90 +940,90 @@
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>0</v>
+        <v>488624</v>
       </c>
       <c r="M15" s="11">
-        <v>488624</v>
+        <v>-488624</v>
       </c>
       <c r="N15" s="11">
-        <v>-488624</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>11928</v>
+        <v>132391</v>
       </c>
       <c r="F16" s="9">
-        <v>132391</v>
+        <v>56543</v>
       </c>
       <c r="G16" s="9">
-        <v>56543</v>
+        <v>65760</v>
       </c>
       <c r="H16" s="9">
-        <v>65760</v>
+        <v>100776</v>
       </c>
       <c r="I16" s="9">
-        <v>100776</v>
+        <v>59908</v>
       </c>
       <c r="J16" s="9">
-        <v>59908</v>
+        <v>99925</v>
       </c>
       <c r="K16" s="9">
-        <v>99925</v>
+        <v>106292</v>
       </c>
       <c r="L16" s="9">
-        <v>106292</v>
+        <v>148543</v>
       </c>
       <c r="M16" s="9">
-        <v>148543</v>
+        <v>243694</v>
       </c>
       <c r="N16" s="9">
-        <v>243694</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>290754</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>1496458</v>
+        <v>1469192</v>
       </c>
       <c r="F17" s="11">
-        <v>1469192</v>
+        <v>2184916</v>
       </c>
       <c r="G17" s="11">
-        <v>2184916</v>
+        <v>1753756</v>
       </c>
       <c r="H17" s="11">
-        <v>1753756</v>
+        <v>3871887</v>
       </c>
       <c r="I17" s="11">
-        <v>3871887</v>
+        <v>2417332</v>
       </c>
       <c r="J17" s="11">
-        <v>2417332</v>
+        <v>2874754</v>
       </c>
       <c r="K17" s="11">
-        <v>2874726</v>
+        <v>4315720</v>
       </c>
       <c r="L17" s="11">
-        <v>4315720</v>
+        <v>4232462</v>
       </c>
       <c r="M17" s="11">
-        <v>4232462</v>
+        <v>3249600</v>
       </c>
       <c r="N17" s="11">
-        <v>3249600</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5098284</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1060,81 +1060,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>583670</v>
+        <v>2585817</v>
       </c>
       <c r="F19" s="11">
-        <v>2585817</v>
+        <v>2552404</v>
       </c>
       <c r="G19" s="11">
-        <v>2552404</v>
+        <v>2976785</v>
       </c>
       <c r="H19" s="11">
-        <v>2976785</v>
+        <v>1433666</v>
       </c>
       <c r="I19" s="11">
-        <v>1433666</v>
+        <v>2421157</v>
       </c>
       <c r="J19" s="11">
-        <v>2421157</v>
+        <v>7053866</v>
       </c>
       <c r="K19" s="11">
-        <v>4447397</v>
+        <v>5634772</v>
       </c>
       <c r="L19" s="11">
-        <v>5634772</v>
+        <v>1852034</v>
       </c>
       <c r="M19" s="11">
-        <v>1852034</v>
+        <v>6864894</v>
       </c>
       <c r="N19" s="11">
-        <v>6864894</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7074800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>4129423</v>
+        <v>5062176</v>
       </c>
       <c r="F20" s="13">
-        <v>5062176</v>
+        <v>6356641</v>
       </c>
       <c r="G20" s="13">
-        <v>6356641</v>
+        <v>6317127</v>
       </c>
       <c r="H20" s="13">
-        <v>6317127</v>
+        <v>8070005</v>
       </c>
       <c r="I20" s="13">
-        <v>8070005</v>
+        <v>7740989</v>
       </c>
       <c r="J20" s="13">
-        <v>7740989</v>
+        <v>12199620</v>
       </c>
       <c r="K20" s="13">
-        <v>10155875</v>
+        <v>11686162</v>
       </c>
       <c r="L20" s="13">
-        <v>11686162</v>
+        <v>9214651</v>
       </c>
       <c r="M20" s="13">
-        <v>9214651</v>
+        <v>14800310</v>
       </c>
       <c r="N20" s="13">
-        <v>14800310</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17606164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1149,7 +1149,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1179,7 +1179,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1231,81 +1231,81 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>1841</v>
+        <v>2269</v>
       </c>
       <c r="F26" s="9">
-        <v>2269</v>
+        <v>2230</v>
       </c>
       <c r="G26" s="9">
-        <v>2230</v>
+        <v>1764</v>
       </c>
       <c r="H26" s="9">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="I26" s="9">
-        <v>1752</v>
+        <v>2573</v>
       </c>
       <c r="J26" s="9">
-        <v>2573</v>
+        <v>2534</v>
       </c>
       <c r="K26" s="9">
         <v>2534</v>
       </c>
       <c r="L26" s="9">
-        <v>2534</v>
+        <v>3326</v>
       </c>
       <c r="M26" s="9">
-        <v>3326</v>
+        <v>3417</v>
       </c>
       <c r="N26" s="9">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>10636</v>
+        <v>10214</v>
       </c>
       <c r="F27" s="11">
-        <v>10214</v>
+        <v>9999</v>
       </c>
       <c r="G27" s="11">
-        <v>9999</v>
+        <v>10441</v>
       </c>
       <c r="H27" s="11">
-        <v>10441</v>
+        <v>10581</v>
       </c>
       <c r="I27" s="11">
-        <v>10581</v>
+        <v>9721</v>
       </c>
       <c r="J27" s="11">
-        <v>9721</v>
+        <v>9627</v>
       </c>
       <c r="K27" s="11">
         <v>9627</v>
       </c>
       <c r="L27" s="11">
-        <v>9627</v>
+        <v>8787</v>
       </c>
       <c r="M27" s="11">
-        <v>8787</v>
+        <v>8698</v>
       </c>
       <c r="N27" s="11">
-        <v>8698</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10267</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1350,7 +1350,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/database/industries/folad/folad/official/quarterly.xlsx
+++ b/database/industries/folad/folad/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\folad\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE58E3-2A95-487C-826C-AF93152637DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EC71D-5ADF-4F33-BB00-0FF1A6D7D1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,30 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +86,12 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -553,16 +583,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N31"/>
+  <dimension ref="B1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -576,8 +606,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +633,18 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -610,8 +660,18 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -625,8 +685,18 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -642,8 +712,18 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="2:24" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +739,18 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -674,8 +764,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -711,8 +811,38 @@
       <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,47 +856,87 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>83193</v>
+      </c>
+      <c r="F10" s="9">
+        <v>195066</v>
+      </c>
+      <c r="G10" s="9">
+        <v>364859</v>
+      </c>
+      <c r="H10" s="9">
+        <v>523235</v>
+      </c>
+      <c r="I10" s="9">
+        <v>771222</v>
+      </c>
+      <c r="J10" s="9">
+        <v>405954</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>637196</v>
+      </c>
+      <c r="M10" s="9">
         <v>1060038</v>
       </c>
-      <c r="F10" s="9">
+      <c r="N10" s="9">
         <v>943970</v>
       </c>
-      <c r="G10" s="9">
+      <c r="O10" s="9">
         <v>1446441</v>
       </c>
-      <c r="H10" s="9">
+      <c r="P10" s="9">
         <v>870019</v>
       </c>
-      <c r="I10" s="9">
+      <c r="Q10" s="9">
         <v>1532072</v>
       </c>
-      <c r="J10" s="9">
+      <c r="R10" s="9">
         <v>807816</v>
       </c>
-      <c r="K10" s="9">
+      <c r="S10" s="9">
         <v>925241</v>
       </c>
-      <c r="L10" s="9">
+      <c r="T10" s="9">
         <v>363622</v>
       </c>
-      <c r="M10" s="9">
+      <c r="U10" s="9">
         <v>3124859</v>
       </c>
-      <c r="N10" s="9">
+      <c r="V10" s="9">
         <v>3443875</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W10" s="9">
+        <v>3209733</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1091244</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -789,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>143461</v>
       </c>
       <c r="L11" s="11">
-        <v>0</v>
+        <v>-143461</v>
       </c>
       <c r="M11" s="11">
         <v>0</v>
@@ -800,232 +970,442 @@
       <c r="N11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>84525</v>
+      </c>
+      <c r="F12" s="9">
+        <v>117744</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>155918</v>
+      </c>
+      <c r="I12" s="9">
+        <v>58853</v>
+      </c>
+      <c r="J12" s="9">
+        <v>175267</v>
+      </c>
+      <c r="K12" s="9">
+        <v>42243</v>
+      </c>
+      <c r="L12" s="9">
+        <v>252772</v>
+      </c>
+      <c r="M12" s="9">
         <v>100620</v>
       </c>
-      <c r="F12" s="9">
+      <c r="N12" s="9">
         <v>205313</v>
       </c>
-      <c r="G12" s="9">
+      <c r="O12" s="9">
         <v>42243</v>
       </c>
-      <c r="H12" s="9">
+      <c r="P12" s="9">
         <v>677760</v>
       </c>
-      <c r="I12" s="9">
+      <c r="Q12" s="9">
         <v>339690</v>
       </c>
-      <c r="J12" s="9">
+      <c r="R12" s="9">
         <v>335132</v>
       </c>
-      <c r="K12" s="9">
+      <c r="S12" s="9">
         <v>299947</v>
       </c>
-      <c r="L12" s="9">
+      <c r="T12" s="9">
         <v>203331</v>
       </c>
-      <c r="M12" s="9">
+      <c r="U12" s="9">
         <v>371112</v>
       </c>
-      <c r="N12" s="9">
+      <c r="V12" s="9">
         <v>393451</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W12" s="9">
+        <v>338844</v>
+      </c>
+      <c r="X12" s="9">
+        <v>337696</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>88657</v>
+      </c>
+      <c r="F13" s="11">
+        <v>283422</v>
+      </c>
+      <c r="G13" s="11">
+        <v>34376</v>
+      </c>
+      <c r="H13" s="11">
+        <v>262691</v>
+      </c>
+      <c r="I13" s="11">
+        <v>188050</v>
+      </c>
+      <c r="J13" s="11">
+        <v>375835</v>
+      </c>
+      <c r="K13" s="11">
+        <v>32142</v>
+      </c>
+      <c r="L13" s="11">
+        <v>510120</v>
+      </c>
+      <c r="M13" s="11">
         <v>494858</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>413495</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>32142</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>1115897</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>970830</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>1028127</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>404190</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>112584</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>3248226</v>
       </c>
-      <c r="N13" s="11">
+      <c r="V13" s="11">
         <v>1305000</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W13" s="11">
+        <v>1305000</v>
+      </c>
+      <c r="X13" s="11">
+        <v>872160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>671100</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1352104</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>696714</v>
+      </c>
+      <c r="M14" s="9">
         <v>-696714</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
         <v>1813451</v>
       </c>
-      <c r="M14" s="9">
+      <c r="U14" s="9">
         <v>-1813451</v>
       </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>133522</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43800</v>
+      </c>
+      <c r="I15" s="11">
+        <v>-43800</v>
+      </c>
+      <c r="J15" s="11">
+        <v>106049</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>84026</v>
+      </c>
+      <c r="M15" s="11">
         <v>-84026</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
         <v>488624</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>-488624</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>45545</v>
+      </c>
+      <c r="F16" s="9">
+        <v>58439</v>
+      </c>
+      <c r="G16" s="9">
+        <v>60416</v>
+      </c>
+      <c r="H16" s="9">
+        <v>55046</v>
+      </c>
+      <c r="I16" s="9">
+        <v>50629</v>
+      </c>
+      <c r="J16" s="9">
+        <v>68275</v>
+      </c>
+      <c r="K16" s="9">
+        <v>65760</v>
+      </c>
+      <c r="L16" s="9">
+        <v>11928</v>
+      </c>
+      <c r="M16" s="9">
         <v>132391</v>
       </c>
-      <c r="F16" s="9">
+      <c r="N16" s="9">
         <v>56543</v>
       </c>
-      <c r="G16" s="9">
+      <c r="O16" s="9">
         <v>65760</v>
       </c>
-      <c r="H16" s="9">
+      <c r="P16" s="9">
         <v>100776</v>
       </c>
-      <c r="I16" s="9">
+      <c r="Q16" s="9">
         <v>59908</v>
       </c>
-      <c r="J16" s="9">
-        <v>99925</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="R16" s="9">
+        <v>99924</v>
+      </c>
+      <c r="S16" s="9">
         <v>106292</v>
       </c>
-      <c r="L16" s="9">
+      <c r="T16" s="9">
         <v>148543</v>
       </c>
-      <c r="M16" s="9">
+      <c r="U16" s="9">
         <v>243694</v>
       </c>
-      <c r="N16" s="9">
+      <c r="V16" s="9">
         <v>290754</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="W16" s="9">
+        <v>459091</v>
+      </c>
+      <c r="X16" s="9">
+        <v>490195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>648150</v>
+      </c>
+      <c r="F17" s="11">
+        <v>891776</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1140600</v>
+      </c>
+      <c r="H17" s="11">
+        <v>830903</v>
+      </c>
+      <c r="I17" s="11">
+        <v>799345</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1141805</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1753756</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1496458</v>
+      </c>
+      <c r="M17" s="11">
         <v>1469192</v>
       </c>
-      <c r="F17" s="11">
+      <c r="N17" s="11">
         <v>2184916</v>
       </c>
-      <c r="G17" s="11">
+      <c r="O17" s="11">
         <v>1753756</v>
       </c>
-      <c r="H17" s="11">
+      <c r="P17" s="11">
         <v>3871887</v>
       </c>
-      <c r="I17" s="11">
+      <c r="Q17" s="11">
         <v>2417332</v>
       </c>
-      <c r="J17" s="11">
+      <c r="R17" s="11">
         <v>2874754</v>
       </c>
-      <c r="K17" s="11">
+      <c r="S17" s="11">
         <v>4315720</v>
       </c>
-      <c r="L17" s="11">
+      <c r="T17" s="11">
         <v>4232462</v>
       </c>
-      <c r="M17" s="11">
+      <c r="U17" s="11">
         <v>3249600</v>
       </c>
-      <c r="N17" s="11">
-        <v>5098284</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V17" s="11">
+        <v>6026055</v>
+      </c>
+      <c r="W17" s="11">
+        <v>7611846</v>
+      </c>
+      <c r="X17" s="11">
+        <v>5303883</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1059,82 +1439,172 @@
       <c r="N18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>813341</v>
+      </c>
+      <c r="F19" s="11">
+        <v>273642</v>
+      </c>
+      <c r="G19" s="11">
+        <v>695608</v>
+      </c>
+      <c r="H19" s="11">
+        <v>880133</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1019844</v>
+      </c>
+      <c r="J19" s="11">
+        <v>421159</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1093531</v>
+      </c>
+      <c r="L19" s="11">
+        <v>583670</v>
+      </c>
+      <c r="M19" s="11">
         <v>2585817</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>2552404</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>2976785</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>1433666</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>2421157</v>
       </c>
-      <c r="J19" s="11">
-        <v>7053866</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="R19" s="11">
+        <v>7053867</v>
+      </c>
+      <c r="S19" s="11">
         <v>5634772</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>1852034</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>6864894</v>
       </c>
-      <c r="N19" s="11">
-        <v>7074800</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V19" s="11">
+        <v>10545724</v>
+      </c>
+      <c r="W19" s="11">
+        <v>6709684</v>
+      </c>
+      <c r="X19" s="11">
+        <v>9201777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>1763411</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2624711</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2295859</v>
+      </c>
+      <c r="H20" s="13">
+        <v>2751726</v>
+      </c>
+      <c r="I20" s="13">
+        <v>2844143</v>
+      </c>
+      <c r="J20" s="13">
+        <v>4046448</v>
+      </c>
+      <c r="K20" s="13">
+        <v>3130893</v>
+      </c>
+      <c r="L20" s="13">
+        <v>4129423</v>
+      </c>
+      <c r="M20" s="13">
         <v>5062176</v>
       </c>
-      <c r="F20" s="13">
+      <c r="N20" s="13">
         <v>6356641</v>
       </c>
-      <c r="G20" s="13">
+      <c r="O20" s="13">
         <v>6317127</v>
       </c>
-      <c r="H20" s="13">
+      <c r="P20" s="13">
         <v>8070005</v>
       </c>
-      <c r="I20" s="13">
+      <c r="Q20" s="13">
         <v>7740989</v>
       </c>
-      <c r="J20" s="13">
+      <c r="R20" s="13">
         <v>12199620</v>
       </c>
-      <c r="K20" s="13">
+      <c r="S20" s="13">
         <v>11686162</v>
       </c>
-      <c r="L20" s="13">
+      <c r="T20" s="13">
         <v>9214651</v>
       </c>
-      <c r="M20" s="13">
+      <c r="U20" s="13">
         <v>14800310</v>
       </c>
-      <c r="N20" s="13">
-        <v>17606164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V20" s="13">
+        <v>22004859</v>
+      </c>
+      <c r="W20" s="13">
+        <v>19634198</v>
+      </c>
+      <c r="X20" s="13">
+        <v>17296955</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1148,8 +1618,18 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1163,8 +1643,18 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1178,10 +1668,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="2:24" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1215,8 +1715,38 @@
       <c r="N24" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1230,82 +1760,152 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
+        <v>5768</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2147</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2108</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2077</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2083</v>
+      </c>
+      <c r="J26" s="9">
+        <v>1931</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2350</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1841</v>
+      </c>
+      <c r="M26" s="9">
         <v>2269</v>
       </c>
-      <c r="F26" s="9">
+      <c r="N26" s="9">
         <v>2230</v>
       </c>
-      <c r="G26" s="9">
+      <c r="O26" s="9">
         <v>1764</v>
       </c>
-      <c r="H26" s="9">
+      <c r="P26" s="9">
         <v>1752</v>
       </c>
-      <c r="I26" s="9">
+      <c r="Q26" s="9">
         <v>2573</v>
       </c>
-      <c r="J26" s="9">
+      <c r="R26" s="9">
+        <v>1727</v>
+      </c>
+      <c r="S26" s="9">
         <v>2534</v>
       </c>
-      <c r="K26" s="9">
-        <v>2534</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="T26" s="9">
         <v>3326</v>
       </c>
-      <c r="M26" s="9">
+      <c r="U26" s="9">
         <v>3417</v>
       </c>
-      <c r="N26" s="9">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V26" s="9">
+        <v>1695</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1680</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>7648</v>
+      </c>
+      <c r="F27" s="11">
+        <v>10989</v>
+      </c>
+      <c r="G27" s="11">
+        <v>10865</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10785</v>
+      </c>
+      <c r="I27" s="11">
+        <v>10787</v>
+      </c>
+      <c r="J27" s="11">
+        <v>10732</v>
+      </c>
+      <c r="K27" s="11">
+        <v>10230</v>
+      </c>
+      <c r="L27" s="11">
+        <v>10636</v>
+      </c>
+      <c r="M27" s="11">
         <v>10214</v>
       </c>
-      <c r="F27" s="11">
+      <c r="N27" s="11">
         <v>9999</v>
       </c>
-      <c r="G27" s="11">
+      <c r="O27" s="11">
         <v>10441</v>
       </c>
-      <c r="H27" s="11">
+      <c r="P27" s="11">
         <v>10581</v>
       </c>
-      <c r="I27" s="11">
+      <c r="Q27" s="11">
         <v>9721</v>
       </c>
-      <c r="J27" s="11">
+      <c r="R27" s="11">
+        <v>10434</v>
+      </c>
+      <c r="S27" s="11">
         <v>9627</v>
       </c>
-      <c r="K27" s="11">
-        <v>9627</v>
-      </c>
-      <c r="L27" s="11">
+      <c r="T27" s="11">
         <v>8787</v>
       </c>
-      <c r="M27" s="11">
+      <c r="U27" s="11">
         <v>8698</v>
       </c>
-      <c r="N27" s="11">
-        <v>10267</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="V27" s="11">
+        <v>10247</v>
+      </c>
+      <c r="W27" s="11">
+        <v>10274</v>
+      </c>
+      <c r="X27" s="11">
+        <v>10274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1319,8 +1919,18 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1334,8 +1944,18 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1349,8 +1969,18 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1364,6 +1994,16 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
